--- a/src/main/resources/userData.xlsx
+++ b/src/main/resources/userData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\seleniumtest\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="10650"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>userEmail</t>
   </si>
@@ -32,16 +36,37 @@
   </si>
   <si>
     <t>gibsonsmith2009</t>
+  </si>
+  <si>
+    <t>gikg@gmail.com</t>
+  </si>
+  <si>
+    <t>sdifiosdjf</t>
+  </si>
+  <si>
+    <t>valit@yandex.ru</t>
+  </si>
+  <si>
+    <t>elelkmiasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -65,13 +90,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -378,38 +406,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/userData.xlsx
+++ b/src/main/resources/userData.xlsx
@@ -38,16 +38,16 @@
     <t>gibsonsmith2009</t>
   </si>
   <si>
-    <t>gikg@gmail.com</t>
-  </si>
-  <si>
-    <t>sdifiosdjf</t>
-  </si>
-  <si>
     <t>valit@yandex.ru</t>
   </si>
   <si>
     <t>elelkmiasa</t>
+  </si>
+  <si>
+    <t>pavloantonov1994@gmail.com</t>
+  </si>
+  <si>
+    <t>12345pavloa</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,24 +437,24 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/main/resources/userData.xlsx
+++ b/src/main/resources/userData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>userEmail</t>
   </si>
@@ -38,23 +38,65 @@
     <t>gibsonsmith2009</t>
   </si>
   <si>
-    <t>valit@yandex.ru</t>
-  </si>
-  <si>
-    <t>elelkmiasa</t>
-  </si>
-  <si>
-    <t>pavloantonov1994@gmail.com</t>
-  </si>
-  <si>
-    <t>12345pavloa</t>
+    <t>tomasjefferson334@gmail.com</t>
+  </si>
+  <si>
+    <t>tomas2015</t>
+  </si>
+  <si>
+    <t>augustinnestor@gmail.com</t>
+  </si>
+  <si>
+    <t>nestor2015</t>
+  </si>
+  <si>
+    <t>auraamlinkoln@gmail.com</t>
+  </si>
+  <si>
+    <t>auraam2015</t>
+  </si>
+  <si>
+    <t>andersonpamela625@gmail.com</t>
+  </si>
+  <si>
+    <t>pamela2015</t>
+  </si>
+  <si>
+    <t>eleanorroosevelt67@gmail.com</t>
+  </si>
+  <si>
+    <t>eleanor2015</t>
+  </si>
+  <si>
+    <t>plresleyelvis@gmail.com</t>
+  </si>
+  <si>
+    <t>elvis2015</t>
+  </si>
+  <si>
+    <t>stuartmarta5@gmail.com</t>
+  </si>
+  <si>
+    <t>marta2015</t>
+  </si>
+  <si>
+    <t>babayagaga884@gmail.com</t>
+  </si>
+  <si>
+    <t>baba2015</t>
+  </si>
+  <si>
+    <t>teodorlanister59@gmail.com</t>
+  </si>
+  <si>
+    <t>teodor2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +113,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,9 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +477,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -437,26 +486,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/src/main/resources/userData.xlsx
+++ b/src/main/resources/userData.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/userData.xlsx
+++ b/src/main/resources/userData.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
